--- a/3-Testing_Documentation_&_Test_Case/Praktikum/Muhamad_Nur_Fajjri_Z_TEST_CASE.xlsx
+++ b/3-Testing_Documentation_&_Test_Case/Praktikum/Muhamad_Nur_Fajjri_Z_TEST_CASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.MATERI KULIAH\SEMESTER-8_QE_ALTERRA\QE_Muhamad-Nur-Fajjri-Z\3-Testing_Documentation_&amp;_Test_Case\Praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B050139B-D166-4868-8C1B-594158EFFBCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E24190-0290-47EB-8CE6-A666806F3251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1E79758F-6DCE-4028-A25E-D68964AEB67C}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Test Case (Pass/Fail/Not Executed)</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>S #</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Pass / Fail / Not executed / Suspended</t>
   </si>
   <si>
-    <t>Cutomer is logged in</t>
-  </si>
-  <si>
     <t>Test Data Requirement</t>
   </si>
   <si>
@@ -150,6 +144,45 @@
   </si>
   <si>
     <t>Membuka laman sebagai pengguna lama</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>Pengguna memasukan username dan password yang telah didaftarkan</t>
+  </si>
+  <si>
+    <t>Pengguna memasukan username dan password yang belum di daftarkan</t>
+  </si>
+  <si>
+    <t>Pengguna tidak masuk ke laman</t>
+  </si>
+  <si>
+    <t>Pengguna masuk ke laman</t>
+  </si>
+  <si>
+    <t>GAGAL</t>
+  </si>
+  <si>
+    <t>Pengguna memasukan username salah password benar</t>
+  </si>
+  <si>
+    <t>Pengguna memasukan username benar password salah</t>
+  </si>
+  <si>
+    <t>Pengguna tidak memasukan username atau password</t>
+  </si>
+  <si>
+    <t>Pengguna masuk dengan akun guest</t>
+  </si>
+  <si>
+    <t>Pengguna menggunakan fitur lupa password</t>
+  </si>
+  <si>
+    <t>Pengguna dapat "reset" password</t>
+  </si>
+  <si>
+    <t>Testing halaman awal pada sepulsa.com</t>
   </si>
 </sst>
 </file>
@@ -489,6 +522,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -505,20 +542,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -526,25 +593,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -619,6 +677,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -631,51 +704,11 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -992,18 +1025,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C36661-0104-44D0-8912-6232ACE965BE}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="2"/>
+    <col min="4" max="5" width="12" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
     <col min="8" max="9" width="12.42578125" style="2" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="2"/>
     <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1011,48 +1045,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="37" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -1068,11 +1104,11 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="77" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="5"/>
@@ -1098,29 +1134,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="34">
+      <c r="E6" s="44"/>
+      <c r="F6" s="45">
         <v>44983</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="78" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="79"/>
-      <c r="J6" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="36"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
@@ -1134,102 +1170,102 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="80"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+        <v>13</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
+      <c r="B9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="3"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
+      <c r="G9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="3"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
+      <c r="G10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="3"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -1246,10 +1282,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1262,151 +1298,445 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="E16" s="29"/>
+      <c r="F16" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="81" t="s">
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="82"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="20" t="s">
+      <c r="B19" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="22"/>
       <c r="F19" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
+        <v>34</v>
+      </c>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="20"/>
+      <c r="B20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24"/>
+        <v>34</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>4</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24"/>
+      <c r="B21" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
+      <c r="A22" s="9">
+        <v>5</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24"/>
+      <c r="A23" s="9">
+        <v>6</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>7</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>8</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>1</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>2</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>3</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>4</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>5</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>6</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>7</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>8</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="98">
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="D29:E30"/>
+    <mergeCell ref="F29:H30"/>
+    <mergeCell ref="I29:K30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1476,40 +1806,40 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="76"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="72" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -1525,10 +1855,10 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1553,23 +1883,23 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="68" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
@@ -1586,92 +1916,92 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="16"/>
       <c r="F8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
+        <v>13</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="12"/>
       <c r="F9" s="18">
         <v>1</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="12"/>
       <c r="F10" s="18">
         <v>2</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="12"/>
       <c r="F11" s="18">
         <v>3</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="12"/>
       <c r="F12" s="18">
         <v>4</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="44"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
@@ -1688,7 +2018,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1702,118 +2032,118 @@
       <c r="K14" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="51" t="s">
+      <c r="E16" s="61"/>
+      <c r="F16" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="47" t="s">
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="65"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="68"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="44"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="44"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="44"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="53">
@@ -1886,40 +2216,40 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="76"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="72" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -1935,10 +2265,10 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1963,23 +2293,23 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="75" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
@@ -1996,92 +2326,92 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="16"/>
       <c r="F8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
+        <v>13</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="12"/>
       <c r="F9" s="18">
         <v>1</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="12"/>
       <c r="F10" s="18">
         <v>2</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="12"/>
       <c r="F11" s="18">
         <v>3</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="12"/>
       <c r="F12" s="18">
         <v>4</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="44"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
@@ -2098,7 +2428,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -2112,118 +2442,118 @@
       <c r="K14" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="51" t="s">
+      <c r="E16" s="61"/>
+      <c r="F16" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="47" t="s">
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="65"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="68"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="44"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="44"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="44"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="53">

--- a/3-Testing_Documentation_&_Test_Case/Praktikum/Muhamad_Nur_Fajjri_Z_TEST_CASE.xlsx
+++ b/3-Testing_Documentation_&_Test_Case/Praktikum/Muhamad_Nur_Fajjri_Z_TEST_CASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.MATERI KULIAH\SEMESTER-8_QE_ALTERRA\QE_Muhamad-Nur-Fajjri-Z\3-Testing_Documentation_&amp;_Test_Case\Praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E24190-0290-47EB-8CE6-A666806F3251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E00E7-5775-4D6B-9205-5AA82256660C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1E79758F-6DCE-4028-A25E-D68964AEB67C}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -183,6 +183,18 @@
   </si>
   <si>
     <t>Testing halaman awal pada sepulsa.com</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>SUSPEND</t>
+  </si>
+  <si>
+    <t>KRITERIA_TESTING</t>
+  </si>
+  <si>
+    <t>TIDAK_DIEKSEKUSI</t>
   </si>
 </sst>
 </file>
@@ -465,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -525,97 +537,143 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -659,57 +717,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C36661-0104-44D0-8912-6232ACE965BE}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:K38"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1040,57 +1057,58 @@
     <col min="6" max="7" width="9.140625" style="2"/>
     <col min="8" max="9" width="12.42578125" style="2" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="2"/>
-    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="13" max="13" width="3.42578125" style="86" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="40" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="41" t="s">
+      <c r="I2" s="32"/>
+      <c r="J2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="42"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1103,11 +1121,11 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="20" t="s">
         <v>7</v>
       </c>
@@ -1120,7 +1138,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1133,32 +1151,38 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45">
+      <c r="E6" s="40"/>
+      <c r="F6" s="41">
         <v>44983</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47" t="s">
+      <c r="G6" s="42"/>
+      <c r="H6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="37"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I6" s="44"/>
+      <c r="J6" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="M6" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="88" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1170,104 +1194,127 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="87">
+        <v>1</v>
+      </c>
+      <c r="N7" s="88" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="M8" s="87">
+        <v>2</v>
+      </c>
+      <c r="N8" s="88" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="3"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="M9" s="87">
+        <v>3</v>
+      </c>
+      <c r="N9" s="88" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="3"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="M10" s="87">
+        <v>4</v>
+      </c>
+      <c r="N10" s="88" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="3"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G11" s="48"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G12" s="48"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1280,7 +1327,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
@@ -1297,225 +1344,225 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="28" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="28" t="s">
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="22" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22" t="s">
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="22" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22" t="s">
+      <c r="E19" s="21"/>
+      <c r="F19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22" t="s">
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="22" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22" t="s">
+      <c r="E20" s="21"/>
+      <c r="F20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22" t="s">
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>4</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="22" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22" t="s">
+      <c r="E21" s="21"/>
+      <c r="F21" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22" t="s">
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>5</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="22" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22" t="s">
+      <c r="E22" s="21"/>
+      <c r="F22" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22" t="s">
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>6</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22" t="s">
+      <c r="E23" s="21"/>
+      <c r="F23" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22" t="s">
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>7</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="22" t="s">
+      <c r="C24" s="27"/>
+      <c r="D24" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22" t="s">
+      <c r="E24" s="21"/>
+      <c r="F24" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22" t="s">
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>8</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="22" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22" t="s">
+      <c r="E25" s="21"/>
+      <c r="F25" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22" t="s">
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
@@ -1535,208 +1582,202 @@
       <c r="K27" s="3"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="28" t="s">
+      <c r="E29" s="23"/>
+      <c r="F29" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="28" t="s">
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>1</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>2</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>3</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>4</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>5</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>6</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>7</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>8</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="D29:E30"/>
-    <mergeCell ref="F29:H30"/>
-    <mergeCell ref="I29:K30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1751,47 +1792,57 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="D29:E30"/>
+    <mergeCell ref="F29:H30"/>
+    <mergeCell ref="I29:K30"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
   </mergeCells>
+  <dataValidations xWindow="750" yWindow="427" count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="INVALID_DATA" error="DATA SALAH" promptTitle="LOLOS" prompt="LOLOS" sqref="I18:K18" xr:uid="{54BF8AAA-E999-4B4A-8E98-BDADDE3486C2}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1806,15 +1857,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="51"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="76"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="52"/>
       <c r="G1" s="52"/>
       <c r="H1" s="52"/>
@@ -1823,23 +1874,23 @@
       <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="76"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="52"/>
       <c r="G2" s="53"/>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="79"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -1855,10 +1906,10 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1883,23 +1934,23 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="82" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
@@ -1918,35 +1969,35 @@
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="16"/>
       <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="74"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="51"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="52"/>
       <c r="D9" s="53"/>
       <c r="E9" s="12"/>
       <c r="F9" s="18">
         <v>1</v>
       </c>
-      <c r="G9" s="51"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="52"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
@@ -1956,14 +2007,14 @@
       <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="51"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="52"/>
       <c r="D10" s="53"/>
       <c r="E10" s="12"/>
       <c r="F10" s="18">
         <v>2</v>
       </c>
-      <c r="G10" s="51"/>
+      <c r="G10" s="67"/>
       <c r="H10" s="52"/>
       <c r="I10" s="52"/>
       <c r="J10" s="52"/>
@@ -1973,14 +2024,14 @@
       <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="51"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="52"/>
       <c r="D11" s="53"/>
       <c r="E11" s="12"/>
       <c r="F11" s="18">
         <v>3</v>
       </c>
-      <c r="G11" s="51"/>
+      <c r="G11" s="67"/>
       <c r="H11" s="52"/>
       <c r="I11" s="52"/>
       <c r="J11" s="52"/>
@@ -1990,14 +2041,14 @@
       <c r="A12" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="52"/>
       <c r="D12" s="53"/>
       <c r="E12" s="12"/>
       <c r="F12" s="18">
         <v>4</v>
       </c>
-      <c r="G12" s="51"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="52"/>
       <c r="I12" s="52"/>
       <c r="J12" s="52"/>
@@ -2032,121 +2083,160 @@
       <c r="K14" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="60" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="56" t="s">
+      <c r="E16" s="75"/>
+      <c r="F16" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="56" t="s">
+      <c r="G16" s="78"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="65"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="79"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="68"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="82"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="51"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="52"/>
       <c r="H18" s="53"/>
-      <c r="I18" s="51"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="52"/>
       <c r="K18" s="53"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="51"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="52"/>
       <c r="H19" s="53"/>
-      <c r="I19" s="51"/>
+      <c r="I19" s="67"/>
       <c r="J19" s="52"/>
       <c r="K19" s="53"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="51"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="52"/>
       <c r="H20" s="53"/>
-      <c r="I20" s="51"/>
+      <c r="I20" s="67"/>
       <c r="J20" s="52"/>
       <c r="K20" s="53"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="51"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="52"/>
       <c r="H21" s="53"/>
-      <c r="I21" s="51"/>
+      <c r="I21" s="67"/>
       <c r="J21" s="52"/>
       <c r="K21" s="53"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="51"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="52"/>
       <c r="H22" s="53"/>
-      <c r="I22" s="51"/>
+      <c r="I22" s="67"/>
       <c r="J22" s="52"/>
       <c r="K22" s="53"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="51"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="52"/>
       <c r="H23" s="53"/>
-      <c r="I23" s="51"/>
+      <c r="I23" s="67"/>
       <c r="J23" s="52"/>
       <c r="K23" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -2161,45 +2251,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2216,15 +2267,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="51"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="76"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="52"/>
       <c r="G1" s="52"/>
       <c r="H1" s="52"/>
@@ -2233,23 +2284,23 @@
       <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="76"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="52"/>
       <c r="G2" s="53"/>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="79"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -2265,10 +2316,10 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2293,23 +2344,23 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="84" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="85"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
@@ -2328,35 +2379,35 @@
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="16"/>
       <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="74"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="51"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="52"/>
       <c r="D9" s="53"/>
       <c r="E9" s="12"/>
       <c r="F9" s="18">
         <v>1</v>
       </c>
-      <c r="G9" s="51"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="52"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
@@ -2366,14 +2417,14 @@
       <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="51"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="52"/>
       <c r="D10" s="53"/>
       <c r="E10" s="12"/>
       <c r="F10" s="18">
         <v>2</v>
       </c>
-      <c r="G10" s="51"/>
+      <c r="G10" s="67"/>
       <c r="H10" s="52"/>
       <c r="I10" s="52"/>
       <c r="J10" s="52"/>
@@ -2383,14 +2434,14 @@
       <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="51"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="52"/>
       <c r="D11" s="53"/>
       <c r="E11" s="12"/>
       <c r="F11" s="18">
         <v>3</v>
       </c>
-      <c r="G11" s="51"/>
+      <c r="G11" s="67"/>
       <c r="H11" s="52"/>
       <c r="I11" s="52"/>
       <c r="J11" s="52"/>
@@ -2400,14 +2451,14 @@
       <c r="A12" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="52"/>
       <c r="D12" s="53"/>
       <c r="E12" s="12"/>
       <c r="F12" s="18">
         <v>4</v>
       </c>
-      <c r="G12" s="51"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="52"/>
       <c r="I12" s="52"/>
       <c r="J12" s="52"/>
@@ -2442,121 +2493,160 @@
       <c r="K14" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="60" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="56" t="s">
+      <c r="E16" s="75"/>
+      <c r="F16" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="56" t="s">
+      <c r="G16" s="78"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="65"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="79"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="68"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="82"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="51"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="52"/>
       <c r="H18" s="53"/>
-      <c r="I18" s="51"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="52"/>
       <c r="K18" s="53"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="51"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="52"/>
       <c r="H19" s="53"/>
-      <c r="I19" s="51"/>
+      <c r="I19" s="67"/>
       <c r="J19" s="52"/>
       <c r="K19" s="53"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="51"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="52"/>
       <c r="H20" s="53"/>
-      <c r="I20" s="51"/>
+      <c r="I20" s="67"/>
       <c r="J20" s="52"/>
       <c r="K20" s="53"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="51"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="52"/>
       <c r="H21" s="53"/>
-      <c r="I21" s="51"/>
+      <c r="I21" s="67"/>
       <c r="J21" s="52"/>
       <c r="K21" s="53"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="51"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="52"/>
       <c r="H22" s="53"/>
-      <c r="I22" s="51"/>
+      <c r="I22" s="67"/>
       <c r="J22" s="52"/>
       <c r="K22" s="53"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="51"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="52"/>
       <c r="H23" s="53"/>
-      <c r="I23" s="51"/>
+      <c r="I23" s="67"/>
       <c r="J23" s="52"/>
       <c r="K23" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -2571,45 +2661,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3-Testing_Documentation_&_Test_Case/Praktikum/Muhamad_Nur_Fajjri_Z_TEST_CASE.xlsx
+++ b/3-Testing_Documentation_&_Test_Case/Praktikum/Muhamad_Nur_Fajjri_Z_TEST_CASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.MATERI KULIAH\SEMESTER-8_QE_ALTERRA\QE_Muhamad-Nur-Fajjri-Z\3-Testing_Documentation_&amp;_Test_Case\Praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E00E7-5775-4D6B-9205-5AA82256660C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B2DF44-1602-4A0B-82FB-4D573A15E94C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1E79758F-6DCE-4028-A25E-D68964AEB67C}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -195,6 +195,24 @@
   </si>
   <si>
     <t>TIDAK_DIEKSEKUSI</t>
+  </si>
+  <si>
+    <t>Pengguna memilih opsi pada halaman utama sepulsa.com (pulsa, voucher game, listrik PLN, dkk</t>
+  </si>
+  <si>
+    <t>ospi terpilih dan masuk ke menu selanjutnya</t>
+  </si>
+  <si>
+    <t>pengguna mengisi form control pada salah satu opsi (kasus contoh pulsa)</t>
+  </si>
+  <si>
+    <t>form terisi dan transaksi di proses</t>
+  </si>
+  <si>
+    <t>pengguna tidak mengisi form control pada salah satu opsi</t>
+  </si>
+  <si>
+    <t>transaksi tidak berjalan</t>
   </si>
 </sst>
 </file>
@@ -477,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -537,6 +555,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -557,8 +578,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -618,6 +640,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -724,9 +749,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C36661-0104-44D0-8912-6232ACE965BE}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1057,56 +1079,56 @@
     <col min="6" max="7" width="9.140625" style="2"/>
     <col min="8" max="9" width="12.42578125" style="2" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="2"/>
-    <col min="13" max="13" width="3.42578125" style="86" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" style="21" customWidth="1"/>
     <col min="14" max="14" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="37" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="38"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -1122,10 +1144,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="20" t="s">
         <v>7</v>
       </c>
@@ -1152,33 +1174,33 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41">
+      <c r="E6" s="44"/>
+      <c r="F6" s="45">
         <v>44983</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="29" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="M6" s="87" t="s">
+      <c r="K6" s="34"/>
+      <c r="M6" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="88" t="s">
+      <c r="N6" s="23" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1194,10 +1216,10 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="87">
+      <c r="M7" s="22">
         <v>1</v>
       </c>
-      <c r="N7" s="88" t="s">
+      <c r="N7" s="23" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1205,26 +1227,26 @@
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="M8" s="87">
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="M8" s="22">
         <v>2</v>
       </c>
-      <c r="N8" s="88" t="s">
+      <c r="N8" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1232,26 +1254,26 @@
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="3"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="M9" s="87">
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="22">
         <v>3</v>
       </c>
-      <c r="N9" s="88" t="s">
+      <c r="N9" s="23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1259,24 +1281,24 @@
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="3"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="M10" s="87">
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="22">
         <v>4</v>
       </c>
-      <c r="N10" s="88" t="s">
+      <c r="N10" s="23" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1284,35 +1306,35 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="3"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -1345,224 +1367,224 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="22" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="22" t="s">
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21" t="s">
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21" t="s">
+      <c r="E19" s="24"/>
+      <c r="F19" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21" t="s">
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="21" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21" t="s">
+      <c r="E20" s="24"/>
+      <c r="F20" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21" t="s">
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>4</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21" t="s">
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>5</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21" t="s">
+      <c r="E22" s="24"/>
+      <c r="F22" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21" t="s">
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>6</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="21" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21" t="s">
+      <c r="E23" s="24"/>
+      <c r="F23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21" t="s">
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>7</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21" t="s">
+      <c r="E24" s="24"/>
+      <c r="F24" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21" t="s">
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>8</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="21" t="s">
+      <c r="C25" s="30"/>
+      <c r="D25" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21" t="s">
+      <c r="E25" s="24"/>
+      <c r="F25" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21" t="s">
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
@@ -1582,160 +1604,184 @@
       <c r="K27" s="3"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="22" t="s">
+      <c r="C29" s="26"/>
+      <c r="D29" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="22" t="s">
+      <c r="E29" s="26"/>
+      <c r="F29" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="22" t="s">
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>1</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>2</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
+      <c r="B32" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>3</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
+      <c r="B33" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>4</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>5</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>6</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>7</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>8</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="98">
@@ -1838,9 +1884,6 @@
     <mergeCell ref="F38:H38"/>
     <mergeCell ref="I38:K38"/>
   </mergeCells>
-  <dataValidations xWindow="750" yWindow="427" count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="INVALID_DATA" error="DATA SALAH" promptTitle="LOLOS" prompt="LOLOS" sqref="I18:K18" xr:uid="{54BF8AAA-E999-4B4A-8E98-BDADDE3486C2}"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1857,40 +1900,40 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54" t="s">
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -1906,10 +1949,10 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="58"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1934,23 +1977,23 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="59" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
@@ -1969,90 +2012,90 @@
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="16"/>
       <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="66"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="12"/>
       <c r="F9" s="18">
         <v>1</v>
       </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="12"/>
       <c r="F10" s="18">
         <v>2</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="12"/>
       <c r="F11" s="18">
         <v>3</v>
       </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="12"/>
       <c r="F12" s="18">
         <v>4</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
@@ -2083,118 +2126,118 @@
       <c r="K14" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="74" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="70" t="s">
+      <c r="E16" s="80"/>
+      <c r="F16" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="70" t="s">
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="78"/>
-      <c r="K16" s="79"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="84"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="87"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="58"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="58"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="58"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="58"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="53">
@@ -2267,40 +2310,40 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54" t="s">
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -2316,10 +2359,10 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="58"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2344,23 +2387,23 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="84" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="85"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
@@ -2379,90 +2422,90 @@
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="16"/>
       <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="66"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="12"/>
       <c r="F9" s="18">
         <v>1</v>
       </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="12"/>
       <c r="F10" s="18">
         <v>2</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="12"/>
       <c r="F11" s="18">
         <v>3</v>
       </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="12"/>
       <c r="F12" s="18">
         <v>4</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
@@ -2493,118 +2536,118 @@
       <c r="K14" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="74" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="70" t="s">
+      <c r="E16" s="80"/>
+      <c r="F16" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="70" t="s">
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="78"/>
-      <c r="K16" s="79"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="84"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="87"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="58"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="58"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="58"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="58"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="53">

--- a/3-Testing_Documentation_&_Test_Case/Praktikum/Muhamad_Nur_Fajjri_Z_TEST_CASE.xlsx
+++ b/3-Testing_Documentation_&_Test_Case/Praktikum/Muhamad_Nur_Fajjri_Z_TEST_CASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.MATERI KULIAH\SEMESTER-8_QE_ALTERRA\QE_Muhamad-Nur-Fajjri-Z\3-Testing_Documentation_&amp;_Test_Case\Praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B2DF44-1602-4A0B-82FB-4D573A15E94C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3365C093-3E5A-476E-B034-4404E590DBA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1E79758F-6DCE-4028-A25E-D68964AEB67C}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -213,6 +213,18 @@
   </si>
   <si>
     <t>transaksi tidak berjalan</t>
+  </si>
+  <si>
+    <t>Pengguna memilih opsi riwayat pesanan</t>
+  </si>
+  <si>
+    <t>Riwayat pesanan muncul</t>
+  </si>
+  <si>
+    <t>pengguna memilih opsi akun pengguna</t>
+  </si>
+  <si>
+    <t>Akun pengguna terbuka</t>
   </si>
 </sst>
 </file>
@@ -561,6 +573,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -576,129 +601,72 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -742,7 +710,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1066,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C36661-0104-44D0-8912-6232ACE965BE}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34:K34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1085,50 +1097,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="39" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="40" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="41" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -1144,10 +1156,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="20" t="s">
         <v>7</v>
       </c>
@@ -1174,29 +1186,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45">
+      <c r="E6" s="47"/>
+      <c r="F6" s="48">
         <v>44983</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47" t="s">
+      <c r="G6" s="49"/>
+      <c r="H6" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="51"/>
+      <c r="J6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="34"/>
+      <c r="K6" s="40"/>
       <c r="M6" s="22" t="s">
         <v>52</v>
       </c>
@@ -1227,22 +1239,22 @@
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
       <c r="M8" s="22">
         <v>2</v>
       </c>
@@ -1254,22 +1266,22 @@
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="3"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="38"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
       <c r="M9" s="22">
         <v>3</v>
       </c>
@@ -1281,20 +1293,20 @@
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="3"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
       <c r="M10" s="22">
         <v>4</v>
       </c>
@@ -1306,35 +1318,35 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="3"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="38"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -1367,40 +1379,40 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="25" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="25" t="s">
+      <c r="E16" s="31"/>
+      <c r="F16" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="25" t="s">
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
@@ -1409,7 +1421,7 @@
       <c r="B18" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="24" t="s">
         <v>36</v>
       </c>
@@ -1432,7 +1444,7 @@
       <c r="B19" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="24" t="s">
         <v>36</v>
       </c>
@@ -1455,7 +1467,7 @@
       <c r="B20" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="24" t="s">
         <v>43</v>
       </c>
@@ -1478,7 +1490,7 @@
       <c r="B21" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="24" t="s">
         <v>42</v>
       </c>
@@ -1501,7 +1513,7 @@
       <c r="B22" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="24" t="s">
         <v>42</v>
       </c>
@@ -1524,7 +1536,7 @@
       <c r="B23" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="24" t="s">
         <v>42</v>
       </c>
@@ -1547,7 +1559,7 @@
       <c r="B24" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="24" t="s">
         <v>42</v>
       </c>
@@ -1570,7 +1582,7 @@
       <c r="B25" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="30"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="24" t="s">
         <v>50</v>
       </c>
@@ -1604,49 +1616,49 @@
       <c r="K27" s="3"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="25" t="s">
+      <c r="C29" s="31"/>
+      <c r="D29" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="25" t="s">
+      <c r="E29" s="31"/>
+      <c r="F29" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="25" t="s">
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>1</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="32"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="24" t="s">
         <v>57</v>
       </c>
@@ -1669,7 +1681,7 @@
       <c r="B32" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="30"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="24" t="s">
         <v>59</v>
       </c>
@@ -1685,14 +1697,14 @@
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>3</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="30"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="24" t="s">
         <v>61</v>
       </c>
@@ -1708,136 +1720,83 @@
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>4</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="24"/>
+      <c r="B34" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="24" t="s">
+        <v>63</v>
+      </c>
       <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
+      <c r="F34" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
+      <c r="I34" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>5</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="24"/>
+      <c r="B35" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
+      <c r="F35" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
+      <c r="I35" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
-        <v>6</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
-        <v>7</v>
-      </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
-        <v>8</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="21"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B37" s="21"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B38" s="21"/>
+      <c r="M38" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
+  <mergeCells count="86">
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="D29:E30"/>
+    <mergeCell ref="F29:H30"/>
+    <mergeCell ref="I29:K30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
@@ -1854,35 +1813,59 @@
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="D29:E30"/>
-    <mergeCell ref="F29:H30"/>
-    <mergeCell ref="I29:K30"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1900,15 +1883,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="81"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="81"/>
       <c r="F1" s="57"/>
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
@@ -1917,23 +1900,23 @@
       <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="56"/>
+      <c r="E2" s="81"/>
       <c r="F2" s="57"/>
       <c r="G2" s="58"/>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="61"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -1949,10 +1932,10 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1977,23 +1960,23 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="64" t="s">
+      <c r="E6" s="54"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
@@ -2012,35 +1995,35 @@
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="16"/>
       <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="72"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="57"/>
       <c r="D9" s="58"/>
       <c r="E9" s="12"/>
       <c r="F9" s="18">
         <v>1</v>
       </c>
-      <c r="G9" s="72"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="57"/>
       <c r="I9" s="57"/>
       <c r="J9" s="57"/>
@@ -2050,14 +2033,14 @@
       <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="72"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="57"/>
       <c r="D10" s="58"/>
       <c r="E10" s="12"/>
       <c r="F10" s="18">
         <v>2</v>
       </c>
-      <c r="G10" s="72"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="57"/>
       <c r="I10" s="57"/>
       <c r="J10" s="57"/>
@@ -2067,14 +2050,14 @@
       <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="72"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="57"/>
       <c r="D11" s="58"/>
       <c r="E11" s="12"/>
       <c r="F11" s="18">
         <v>3</v>
       </c>
-      <c r="G11" s="72"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="57"/>
       <c r="I11" s="57"/>
       <c r="J11" s="57"/>
@@ -2084,14 +2067,14 @@
       <c r="A12" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="72"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="57"/>
       <c r="D12" s="58"/>
       <c r="E12" s="12"/>
       <c r="F12" s="18">
         <v>4</v>
       </c>
-      <c r="G12" s="72"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
       <c r="J12" s="57"/>
@@ -2126,160 +2109,121 @@
       <c r="K14" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="79" t="s">
+      <c r="C16" s="62"/>
+      <c r="D16" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="75" t="s">
+      <c r="E16" s="66"/>
+      <c r="F16" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="75" t="s">
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="83"/>
-      <c r="K16" s="84"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="70"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="87"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="73"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="72"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="57"/>
       <c r="H18" s="58"/>
-      <c r="I18" s="72"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="57"/>
       <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="72"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="57"/>
       <c r="H19" s="58"/>
-      <c r="I19" s="72"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="57"/>
       <c r="K19" s="58"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="72"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="57"/>
       <c r="H20" s="58"/>
-      <c r="I20" s="72"/>
+      <c r="I20" s="56"/>
       <c r="J20" s="57"/>
       <c r="K20" s="58"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="72"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="56"/>
       <c r="G21" s="57"/>
       <c r="H21" s="58"/>
-      <c r="I21" s="72"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="57"/>
       <c r="K21" s="58"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="72"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="57"/>
       <c r="H22" s="58"/>
-      <c r="I22" s="72"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="57"/>
       <c r="K22" s="58"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="72"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="56"/>
       <c r="G23" s="57"/>
       <c r="H23" s="58"/>
-      <c r="I23" s="72"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="57"/>
       <c r="K23" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -2294,6 +2238,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2310,15 +2293,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="81"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="81"/>
       <c r="F1" s="57"/>
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
@@ -2327,23 +2310,23 @@
       <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="56"/>
+      <c r="E2" s="81"/>
       <c r="F2" s="57"/>
       <c r="G2" s="58"/>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="61"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -2359,10 +2342,10 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2387,23 +2370,23 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
       <c r="H6" s="89" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="90"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
@@ -2422,35 +2405,35 @@
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="16"/>
       <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="72"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="57"/>
       <c r="D9" s="58"/>
       <c r="E9" s="12"/>
       <c r="F9" s="18">
         <v>1</v>
       </c>
-      <c r="G9" s="72"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="57"/>
       <c r="I9" s="57"/>
       <c r="J9" s="57"/>
@@ -2460,14 +2443,14 @@
       <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="72"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="57"/>
       <c r="D10" s="58"/>
       <c r="E10" s="12"/>
       <c r="F10" s="18">
         <v>2</v>
       </c>
-      <c r="G10" s="72"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="57"/>
       <c r="I10" s="57"/>
       <c r="J10" s="57"/>
@@ -2477,14 +2460,14 @@
       <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="72"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="57"/>
       <c r="D11" s="58"/>
       <c r="E11" s="12"/>
       <c r="F11" s="18">
         <v>3</v>
       </c>
-      <c r="G11" s="72"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="57"/>
       <c r="I11" s="57"/>
       <c r="J11" s="57"/>
@@ -2494,14 +2477,14 @@
       <c r="A12" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="72"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="57"/>
       <c r="D12" s="58"/>
       <c r="E12" s="12"/>
       <c r="F12" s="18">
         <v>4</v>
       </c>
-      <c r="G12" s="72"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
       <c r="J12" s="57"/>
@@ -2536,160 +2519,121 @@
       <c r="K14" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="79" t="s">
+      <c r="C16" s="62"/>
+      <c r="D16" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="75" t="s">
+      <c r="E16" s="66"/>
+      <c r="F16" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="75" t="s">
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="83"/>
-      <c r="K16" s="84"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="70"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="87"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="73"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="72"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="57"/>
       <c r="H18" s="58"/>
-      <c r="I18" s="72"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="57"/>
       <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="72"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="57"/>
       <c r="H19" s="58"/>
-      <c r="I19" s="72"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="57"/>
       <c r="K19" s="58"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="72"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="57"/>
       <c r="H20" s="58"/>
-      <c r="I20" s="72"/>
+      <c r="I20" s="56"/>
       <c r="J20" s="57"/>
       <c r="K20" s="58"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="72"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="56"/>
       <c r="G21" s="57"/>
       <c r="H21" s="58"/>
-      <c r="I21" s="72"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="57"/>
       <c r="K21" s="58"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="72"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="57"/>
       <c r="H22" s="58"/>
-      <c r="I22" s="72"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="57"/>
       <c r="K22" s="58"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="72"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="56"/>
       <c r="G23" s="57"/>
       <c r="H23" s="58"/>
-      <c r="I23" s="72"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="57"/>
       <c r="K23" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -2704,6 +2648,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3-Testing_Documentation_&_Test_Case/Praktikum/Muhamad_Nur_Fajjri_Z_TEST_CASE.xlsx
+++ b/3-Testing_Documentation_&_Test_Case/Praktikum/Muhamad_Nur_Fajjri_Z_TEST_CASE.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.MATERI KULIAH\SEMESTER-8_QE_ALTERRA\QE_Muhamad-Nur-Fajjri-Z\3-Testing_Documentation_&amp;_Test_Case\Praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3365C093-3E5A-476E-B034-4404E590DBA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5669A3B-3E82-46A3-BDCC-E6DD97EFD98D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1E79758F-6DCE-4028-A25E-D68964AEB67C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{1E79758F-6DCE-4028-A25E-D68964AEB67C}"/>
   </bookViews>
   <sheets>
-    <sheet name="TC_001" sheetId="1" r:id="rId1"/>
-    <sheet name="TC_002" sheetId="2" r:id="rId2"/>
+    <sheet name="EXPLORASI_1" sheetId="1" r:id="rId1"/>
+    <sheet name="EXPLORASI_2" sheetId="2" r:id="rId2"/>
     <sheet name="TC_003" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="63">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -185,18 +185,6 @@
     <t>Testing halaman awal pada sepulsa.com</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>SUSPEND</t>
-  </si>
-  <si>
-    <t>KRITERIA_TESTING</t>
-  </si>
-  <si>
-    <t>TIDAK_DIEKSEKUSI</t>
-  </si>
-  <si>
     <t>Pengguna memilih opsi pada halaman utama sepulsa.com (pulsa, voucher game, listrik PLN, dkk</t>
   </si>
   <si>
@@ -225,6 +213,9 @@
   </si>
   <si>
     <t>Akun pengguna terbuka</t>
+  </si>
+  <si>
+    <t>TC_002</t>
   </si>
 </sst>
 </file>
@@ -507,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -568,105 +559,147 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -710,51 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -777,6 +766,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>351148</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>8716</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C9172E-4753-4FFA-8F85-E4F3A8053F9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9558618" y="437029"/>
+          <a:ext cx="6906589" cy="2238687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>505724</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECFE37F5-8AE7-4367-A86A-C61EB10B7521}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="257175"/>
+          <a:ext cx="6439799" cy="1305107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1076,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C36661-0104-44D0-8912-6232ACE965BE}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:K38"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1096,53 +1183,53 @@
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="43" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="44" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="45"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K2" s="40"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1155,11 +1242,11 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="20" t="s">
         <v>7</v>
       </c>
@@ -1171,8 +1258,9 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1184,39 +1272,35 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48">
+      <c r="E6" s="42"/>
+      <c r="F6" s="43">
         <v>44983</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50" t="s">
+      <c r="G6" s="44"/>
+      <c r="H6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="39" t="s">
+      <c r="I6" s="46"/>
+      <c r="J6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="M6" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K6" s="32"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1228,127 +1312,108 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="22">
-        <v>1</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="22">
-        <v>2</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="3"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
-      <c r="M9" s="22">
-        <v>3</v>
-      </c>
-      <c r="N9" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="3"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-      <c r="M10" s="22">
-        <v>4</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="3"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G11" s="50"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G12" s="50"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1361,7 +1426,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
@@ -1378,225 +1443,225 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="30" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="30" t="s">
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="24" t="s">
+      <c r="C18" s="51"/>
+      <c r="D18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24" t="s">
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="24" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24" t="s">
+      <c r="E19" s="22"/>
+      <c r="F19" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24" t="s">
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="24" t="s">
+      <c r="C20" s="28"/>
+      <c r="D20" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24" t="s">
+      <c r="E20" s="22"/>
+      <c r="F20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24" t="s">
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>4</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="24" t="s">
+      <c r="C21" s="28"/>
+      <c r="D21" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24" t="s">
+      <c r="E21" s="22"/>
+      <c r="F21" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24" t="s">
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>5</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="24" t="s">
+      <c r="C22" s="28"/>
+      <c r="D22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24" t="s">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24" t="s">
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>6</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="24" t="s">
+      <c r="C23" s="28"/>
+      <c r="D23" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24" t="s">
+      <c r="E23" s="22"/>
+      <c r="F23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24" t="s">
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>7</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="24" t="s">
+      <c r="C24" s="28"/>
+      <c r="D24" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24" t="s">
+      <c r="E24" s="22"/>
+      <c r="F24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24" t="s">
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>8</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="24" t="s">
+      <c r="C25" s="28"/>
+      <c r="D25" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24" t="s">
+      <c r="E25" s="22"/>
+      <c r="F25" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24" t="s">
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
@@ -1616,155 +1681,155 @@
       <c r="K27" s="3"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="30" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="30" t="s">
+      <c r="E29" s="24"/>
+      <c r="F29" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="30" t="s">
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>1</v>
       </c>
-      <c r="B31" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24" t="s">
+      <c r="B31" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24" t="s">
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>2</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24" t="s">
+      <c r="B32" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24" t="s">
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>3</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24" t="s">
+      <c r="B33" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24" t="s">
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>4</v>
       </c>
-      <c r="B34" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24" t="s">
+      <c r="B34" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24" t="s">
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>5</v>
       </c>
-      <c r="B35" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24" t="s">
+      <c r="B35" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24" t="s">
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B36" s="21"/>
@@ -1780,39 +1845,45 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="D29:E30"/>
-    <mergeCell ref="F29:H30"/>
-    <mergeCell ref="I29:K30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1827,258 +1898,277 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="D29:E30"/>
+    <mergeCell ref="F29:H30"/>
+    <mergeCell ref="I29:K30"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6135E887-8EF5-4069-98F0-E488ED0A1FCD}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="77" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="77" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="82" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="84"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="87" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="87" t="s">
+      <c r="E6" s="42"/>
+      <c r="F6" s="43">
+        <v>44983</v>
+      </c>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17" t="s">
+      <c r="B8" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="79"/>
+      <c r="G8" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="18">
+      <c r="B9" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="58"/>
+      <c r="G9" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="18">
+      <c r="B10" s="50"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
+      <c r="G10" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="18">
+      <c r="B11" s="50"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="18">
+      <c r="B12" s="50"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
@@ -2094,136 +2184,240 @@
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70"/>
+      <c r="A14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="73"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
+      <c r="A18" s="9">
+        <v>1</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="58"/>
+      <c r="A19" s="9">
+        <v>2</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
+      <c r="A20" s="9">
+        <v>3</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58"/>
+      <c r="A21" s="9">
+        <v>4</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
+      <c r="A22" s="9">
+        <v>5</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="58"/>
+      <c r="A23" s="9">
+        <v>6</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>7</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>8</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="61">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -2238,47 +2432,9 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2293,40 +2449,40 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="81"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="82" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="84"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -2342,10 +2498,10 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="86"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2370,23 +2526,23 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89" t="s">
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="90"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
@@ -2405,90 +2561,90 @@
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="16"/>
       <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="79"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="69"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
       <c r="E9" s="12"/>
       <c r="F9" s="18">
         <v>1</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="58"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="12"/>
       <c r="F10" s="18">
         <v>2</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="12"/>
       <c r="F11" s="18">
         <v>3</v>
       </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="12"/>
       <c r="F12" s="18">
         <v>4</v>
       </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
@@ -2519,121 +2675,160 @@
       <c r="K14" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="65" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="61" t="s">
+      <c r="E16" s="78"/>
+      <c r="F16" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="61" t="s">
+      <c r="G16" s="81"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="82"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="73"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="58"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="56"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="58"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -2648,45 +2843,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
